--- a/Inputs/Xen_Health/info.xlsx
+++ b/Inputs/Xen_Health/info.xlsx
@@ -52,10 +52,10 @@
     <t xml:space="preserve">NE_Dubai/AbuDhabi</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD</t>
+    <t xml:space="preserve">2025-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED</t>
   </si>
   <si>
     <t xml:space="preserve">Annually/</t>
@@ -189,10 +189,10 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.65"/>
@@ -235,7 +235,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3.6725</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
